--- a/data/trans_media/Q47-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q47-Provincia-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>172,79; 174,36</t>
+          <t>172,77; 174,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>173,19; 175,11</t>
+          <t>173,3; 175,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>160,54; 162,09</t>
+          <t>160,53; 162,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>160,79; 162,55</t>
+          <t>160,77; 162,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>166,75; 168,31</t>
+          <t>166,82; 168,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>167,2; 168,89</t>
+          <t>167,22; 168,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>171,93; 173,18</t>
+          <t>171,88; 173,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>171,97; 173,36</t>
+          <t>172,05; 173,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>171,56; 172,96</t>
+          <t>171,55; 172,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>159,75; 160,96</t>
+          <t>159,76; 160,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>160,14; 161,45</t>
+          <t>160,16; 161,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>159,86; 161,07</t>
+          <t>159,81; 161,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>165,8; 166,98</t>
+          <t>165,86; 166,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>166,08; 167,26</t>
+          <t>166,06; 167,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>165,74; 166,93</t>
+          <t>165,76; 167,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>172,09; 173,87</t>
+          <t>171,99; 173,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>172,38; 173,8</t>
+          <t>172,29; 173,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>173,47; 174,97</t>
+          <t>173,44; 175,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>159,67; 161,1</t>
+          <t>159,64; 161,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>160,47; 161,89</t>
+          <t>160,56; 161,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>161,14; 162,69</t>
+          <t>161,16; 162,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>165,69; 167,19</t>
+          <t>165,76; 167,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>166,33; 167,75</t>
+          <t>166,24; 167,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>167,19; 168,72</t>
+          <t>167,17; 168,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>173,02; 174,59</t>
+          <t>173,01; 174,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>172,59; 173,9</t>
+          <t>172,5; 173,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>172,37; 174,04</t>
+          <t>172,43; 174,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>161,06; 162,42</t>
+          <t>161,0; 162,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>160,58; 161,65</t>
+          <t>160,51; 161,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>160,51; 162,02</t>
+          <t>160,42; 161,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>166,97; 168,34</t>
+          <t>166,94; 168,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>166,68; 167,83</t>
+          <t>166,76; 167,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>166,62; 168,05</t>
+          <t>166,67; 168,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>171,15; 173,31</t>
+          <t>171,19; 173,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>172,8; 174,86</t>
+          <t>172,88; 174,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>171,83; 173,78</t>
+          <t>171,87; 173,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>159,95; 161,91</t>
+          <t>159,99; 161,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>159,32; 161,4</t>
+          <t>159,42; 161,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>160,32; 161,86</t>
+          <t>160,31; 161,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>165,66; 167,48</t>
+          <t>165,69; 167,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>166,29; 168,28</t>
+          <t>166,25; 168,15</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>165,97; 167,62</t>
+          <t>165,94; 167,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>172,75; 174,4</t>
+          <t>172,74; 174,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>172,41; 174,35</t>
+          <t>172,54; 174,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>172,27; 174,13</t>
+          <t>172,27; 174,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>159,19; 160,81</t>
+          <t>159,12; 160,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>160,06; 161,71</t>
+          <t>159,98; 161,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>159,65; 161,25</t>
+          <t>159,59; 161,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>165,86; 167,54</t>
+          <t>165,91; 167,6</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>166,29; 167,97</t>
+          <t>166,32; 168,03</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>165,88; 167,51</t>
+          <t>165,89; 167,52</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>172,89; 174,14</t>
+          <t>172,88; 174,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>172,91; 174,14</t>
+          <t>172,91; 174,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>175,86; 177,2</t>
+          <t>175,83; 177,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>160,48; 161,66</t>
+          <t>160,56; 161,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>161,04; 162,17</t>
+          <t>161,06; 162,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>162,19; 163,3</t>
+          <t>162,24; 163,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>166,69; 167,8</t>
+          <t>166,7; 167,82</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>166,96; 167,99</t>
+          <t>166,93; 167,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>168,9; 170,0</t>
+          <t>168,86; 170,05</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>172,63; 173,7</t>
+          <t>172,6; 173,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>172,09; 173,21</t>
+          <t>172,13; 173,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>172,64; 173,72</t>
+          <t>172,7; 173,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>160,61; 161,52</t>
+          <t>160,6; 161,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>160,35; 161,18</t>
+          <t>160,3; 161,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>160,72; 161,78</t>
+          <t>160,77; 161,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>166,44; 167,36</t>
+          <t>166,41; 167,38</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>166,06; 167,02</t>
+          <t>166,1; 167,01</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>166,51; 167,47</t>
+          <t>166,53; 167,52</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>172,85; 173,36</t>
+          <t>172,88; 173,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>173,58; 174,13</t>
+          <t>173,59; 174,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>160,66; 161,12</t>
+          <t>160,64; 161,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>160,82; 161,29</t>
+          <t>160,8; 161,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>161,21; 161,68</t>
+          <t>161,22; 161,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>166,71; 167,2</t>
+          <t>166,71; 167,17</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>166,8; 167,29</t>
+          <t>166,78; 167,28</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>167,32; 167,79</t>
+          <t>167,3; 167,78</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
